--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2583.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2583.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8360851927996727</v>
+        <v>1.356401443481445</v>
       </c>
       <c r="B1">
-        <v>1.323232553691006</v>
+        <v>5.543663024902344</v>
       </c>
       <c r="C1">
-        <v>2.956876557827611</v>
+        <v>3.67113733291626</v>
       </c>
       <c r="D1">
-        <v>2.338005103965197</v>
+        <v>0.9658727645874023</v>
       </c>
       <c r="E1">
-        <v>0.9727302270961419</v>
+        <v>0.6174454092979431</v>
       </c>
     </row>
   </sheetData>
